--- a/uipath/dailymovement/prestige_dailymovement/prestige.xlsx
+++ b/uipath/dailymovement/prestige_dailymovement/prestige.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\UiPath\dailymovement\prestige_dailymovement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC94927-523D-459A-B0E1-DF144E25D3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7179434A-0050-4AB7-B52C-DEA234FA87CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1870" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2260" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prestige ticker" sheetId="4" r:id="rId1"/>
@@ -230,9 +230,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -240,6 +237,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -814,139 +814,133 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="4">
+        <v>44049</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1">
         <f>((D2*E2)+(D3*E3)+(D4*E4)+(D5*E5)+(D6*E6)+(D6*E7)+(D8*E8)+(D9*E9)+(D10*E10)+(D11*E11))</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
